--- a/WebService/src/main/resources/static/import/hc.xlsx
+++ b/WebService/src/main/resources/static/import/hc.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>总层数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,22 @@
   </si>
   <si>
     <t>地上停车位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车牌号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +484,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1579,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1590,7 +1606,7 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1603,8 +1619,20 @@
       <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1617,126 +1645,210 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebService/src/main/resources/static/import/hc.xlsx
+++ b/WebService/src/main/resources/static/import/hc.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>总层数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,10 @@
   </si>
   <si>
     <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出租还是出售（H出租S出售）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1595,18 +1599,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1631,8 +1636,11 @@
       <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1649,8 +1657,9 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1659,8 +1668,9 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1669,8 +1679,9 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1679,8 +1690,9 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1689,8 +1701,9 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1699,8 +1712,9 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1709,8 +1723,9 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1719,8 +1734,9 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1729,8 +1745,9 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1739,8 +1756,9 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1749,8 +1767,9 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1759,8 +1778,9 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1769,8 +1789,9 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1779,8 +1800,9 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1789,8 +1811,9 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1799,8 +1822,9 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1809,8 +1833,9 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1819,8 +1844,9 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1829,8 +1855,9 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1839,8 +1866,9 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1849,6 +1877,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebService/src/main/resources/static/import/hc.xlsx
+++ b/WebService/src/main/resources/static/import/hc.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="楼栋单元" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
   <si>
     <t>总层数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,14 @@
   </si>
   <si>
     <t>出租还是出售（H出租S出售）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>632126199109162011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -203,11 +211,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -216,6 +235,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -488,7 +512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -903,18 +927,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -930,8 +955,11 @@
       <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -947,8 +975,11 @@
       <c r="E2" s="1">
         <v>18999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -964,8 +995,11 @@
       <c r="E3" s="1">
         <v>18999999991</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -981,8 +1015,11 @@
       <c r="E4" s="1">
         <v>18999999992</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -998,8 +1035,11 @@
       <c r="E5" s="1">
         <v>18999999993</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1015,164 +1055,190 @@
       <c r="E6" s="1">
         <v>18999999994</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1601,7 +1667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>

--- a/WebService/src/main/resources/static/import/hc.xlsx
+++ b/WebService/src/main/resources/static/import/hc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="楼栋单元" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>总层数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>车位类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,6 +153,14 @@
   </si>
   <si>
     <t>632126199109162011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车场编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车场类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -929,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -956,7 +960,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -976,7 +980,7 @@
         <v>18999999999</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -996,7 +1000,7 @@
         <v>18999999991</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1016,7 +1020,7 @@
         <v>18999999992</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1036,7 +1040,7 @@
         <v>18999999993</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1056,7 +1060,7 @@
         <v>18999999994</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1247,7 +1251,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1665,67 +1669,74 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>98.32</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1735,8 +1746,9 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1746,8 +1758,9 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1757,8 +1770,9 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1768,8 +1782,9 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1779,8 +1794,9 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1790,8 +1806,9 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1801,8 +1818,9 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1812,8 +1830,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1823,8 +1842,9 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1834,8 +1854,9 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1845,8 +1866,9 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1856,8 +1878,9 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1867,8 +1890,9 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1878,8 +1902,9 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1889,8 +1914,9 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1900,8 +1926,9 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1911,8 +1938,9 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1922,8 +1950,9 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1933,8 +1962,9 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1944,6 +1974,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebService/src/main/resources/static/import/hc.xlsx
+++ b/WebService/src/main/resources/static/import/hc.xlsx
@@ -136,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>车类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>颜色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,6 +157,10 @@
   </si>
   <si>
     <t>停车场类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车类型（9901 家用小汽车 9902 客车 9903 货车）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +516,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -960,7 +960,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -980,7 +980,7 @@
         <v>18999999999</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1000,7 +1000,7 @@
         <v>18999999991</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1020,7 +1020,7 @@
         <v>18999999992</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1040,7 +1040,7 @@
         <v>18999999993</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1060,7 +1060,7 @@
         <v>18999999994</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1672,25 +1672,26 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.375" customWidth="1"/>
     <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>23</v>
@@ -1705,13 +1706,13 @@
         <v>27</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
